--- a/Original/CN/Game/Block.xlsx
+++ b/Original/CN/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="479">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1106,6 +1106,24 @@
     <t xml:space="preserve">176</t>
   </si>
   <si>
+    <t xml:space="preserve">177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1155,6 +1173,18 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.126</t>
   </si>
   <si>
     <t xml:space="preserve">土方块</t>
@@ -1533,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1545,10 +1575,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1564,10 +1594,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1583,10 +1613,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1602,10 +1632,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1621,10 +1651,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1640,10 +1670,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1659,10 +1689,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1678,10 +1708,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1697,10 +1727,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1716,10 +1746,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1735,10 +1765,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1754,10 +1784,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1773,10 +1803,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1785,7 +1815,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1797,10 +1827,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1816,10 +1846,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1835,10 +1865,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C19" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1854,10 +1884,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C20" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1873,10 +1903,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1892,10 +1922,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C22" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1911,10 +1941,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C23" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1930,10 +1960,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1949,10 +1979,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1968,10 +1998,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -1987,10 +2017,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C27" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -2006,10 +2036,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C28" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -2025,10 +2055,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -2044,10 +2074,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C30" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2063,10 +2093,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C31" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2075,7 +2105,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2087,10 +2117,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2106,10 +2136,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2125,10 +2155,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2144,10 +2174,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2163,10 +2193,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C36" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2182,10 +2212,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C37" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2201,10 +2231,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2220,10 +2250,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C39" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2239,10 +2269,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2258,10 +2288,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2277,10 +2307,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2296,10 +2326,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C43" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2315,10 +2345,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C44" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2334,10 +2364,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2353,10 +2383,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2372,10 +2402,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C47" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2391,10 +2421,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2410,10 +2440,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C49" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2429,10 +2459,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C50" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2448,10 +2478,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2467,10 +2497,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C52" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2486,10 +2516,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2505,10 +2535,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C54" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2524,10 +2554,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C55" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2543,10 +2573,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C56" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2562,10 +2592,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C57" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2581,10 +2611,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C58" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2600,10 +2630,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C59" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2619,10 +2649,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C60" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2638,10 +2668,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C61" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2657,10 +2687,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C62" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2676,10 +2706,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C63" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2695,10 +2725,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2714,10 +2744,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2733,10 +2763,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C66" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2752,10 +2782,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C67" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2771,10 +2801,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C68" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2790,10 +2820,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2809,10 +2839,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C70" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -2828,10 +2858,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C71" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -2847,10 +2877,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C72" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -2866,10 +2896,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C73" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -2885,10 +2915,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C74" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -2904,10 +2934,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -2923,10 +2953,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C76" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -2942,10 +2972,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C77" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -2961,10 +2991,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C78" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -2980,10 +3010,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C79" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -2999,10 +3029,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C80" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -3018,10 +3048,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C81" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -3037,10 +3067,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3056,10 +3086,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C83" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3075,10 +3105,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C84" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3094,10 +3124,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C85" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3113,10 +3143,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C86" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3132,10 +3162,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C87" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3151,10 +3181,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C88" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3170,10 +3200,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C89" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3189,10 +3219,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C90" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3208,10 +3238,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C91" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3227,10 +3257,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C92" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3246,10 +3276,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C93" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3265,10 +3295,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C94" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3284,10 +3314,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C95" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3303,10 +3333,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C96" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3322,10 +3352,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C97" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3341,10 +3371,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C98" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3360,10 +3390,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3379,10 +3409,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C100" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3398,10 +3428,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C101" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3417,10 +3447,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C102" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3436,10 +3466,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C103" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3455,10 +3485,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C104" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3474,10 +3504,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C105" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3493,10 +3523,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C106" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3512,10 +3542,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C107" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3531,10 +3561,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C108" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3550,10 +3580,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C109" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3569,10 +3599,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C110" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3588,10 +3618,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C111" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3607,10 +3637,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C112" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3626,10 +3656,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C113" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3645,10 +3675,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C114" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3664,10 +3694,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C115" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3683,10 +3713,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C116" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3702,10 +3732,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C117" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3721,10 +3751,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C118" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3740,10 +3770,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C119" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3759,10 +3789,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C120" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3778,10 +3808,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C121" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -3797,10 +3827,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C122" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -3816,10 +3846,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -3835,10 +3865,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -3854,10 +3884,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C125" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -3873,10 +3903,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C126" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -3892,10 +3922,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C127" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -3911,10 +3941,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C128" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -3930,10 +3960,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C129" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -3949,10 +3979,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C130" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -3968,10 +3998,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C131" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -3980,7 +4010,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -3994,10 +4024,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -4013,10 +4043,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C133" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -4032,10 +4062,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4051,10 +4081,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C135" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4070,10 +4100,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4089,10 +4119,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C137" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4108,10 +4138,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C138" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4127,10 +4157,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C139" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4146,10 +4176,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C140" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4165,10 +4195,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C141" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4184,10 +4214,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C142" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4203,10 +4233,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C143" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4222,10 +4252,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C144" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4241,10 +4271,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C145" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4260,10 +4290,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C146" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4279,10 +4309,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C147" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4298,10 +4328,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C148" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4317,10 +4347,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C149" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4336,10 +4366,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C150" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4355,10 +4385,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C151" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4374,10 +4404,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C152" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4393,10 +4423,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C153" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4412,10 +4442,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C154" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4431,10 +4461,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C155" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4450,10 +4480,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C156" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4469,10 +4499,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4488,10 +4518,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C158" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4507,10 +4537,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C159" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4526,10 +4556,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C160" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4545,10 +4575,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C161" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4564,10 +4594,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C162" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4583,10 +4613,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4602,10 +4632,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C164" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4621,10 +4651,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C165" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4640,7 +4670,7 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C166" t="s">
         <v>335</v>
@@ -4659,7 +4689,7 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C167" t="s">
         <v>335</v>
@@ -4678,10 +4708,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C168" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4697,10 +4727,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C169" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4716,10 +4746,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C170" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -4735,10 +4765,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C171" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -4754,10 +4784,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C172" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4773,10 +4803,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C173" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4792,10 +4822,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C174" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -4811,10 +4841,10 @@
         <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C175" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D175" t="s">
         <v>355</v>
@@ -4830,10 +4860,10 @@
         <v>357</v>
       </c>
       <c r="B176" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C176" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D176" t="s">
         <v>355</v>
@@ -4849,10 +4879,10 @@
         <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C177" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D177" t="s">
         <v>359</v>
@@ -4868,10 +4898,10 @@
         <v>361</v>
       </c>
       <c r="B178" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C178" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -4887,10 +4917,10 @@
         <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C179" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
@@ -4900,6 +4930,114 @@
       </c>
       <c r="G179"/>
       <c r="H179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>363</v>
+      </c>
+      <c r="B180" t="s">
+        <v>386</v>
+      </c>
+      <c r="C180" t="s">
+        <v>396</v>
+      </c>
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" t="s">
+        <v>30</v>
+      </c>
+      <c r="G180"/>
+      <c r="H180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181" t="s">
+        <v>387</v>
+      </c>
+      <c r="C181" t="s">
+        <v>396</v>
+      </c>
+      <c r="D181" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" t="s">
+        <v>30</v>
+      </c>
+      <c r="G181"/>
+      <c r="H181"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" t="s">
+        <v>388</v>
+      </c>
+      <c r="C182" t="s">
+        <v>396</v>
+      </c>
+      <c r="D182" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182" t="s">
+        <v>30</v>
+      </c>
+      <c r="G182"/>
+      <c r="H182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C183" t="s">
+        <v>396</v>
+      </c>
+      <c r="D183" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" t="s">
+        <v>30</v>
+      </c>
+      <c r="G183"/>
+      <c r="H183"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184"/>
+      <c r="H184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" t="s">
+        <v>30</v>
+      </c>
+      <c r="G185"/>
+      <c r="H185"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Block.xlsx
+++ b/Original/CN/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="509">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1147 +44,1225 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wooden fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の段差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rooftop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根トップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丸太のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deco block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">装飾ブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の段差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硝子のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaffold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">足場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建築には欠かせない足場。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirror block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鏡のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforced plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">補強された板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magma block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶岩のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大木のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluffy block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もふもふしたブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organ block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臓器のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金属のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハシゴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thick plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厚い板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丸太の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アーチの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wooden pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アーチの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jail wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牢屋の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lumiest wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルミエストの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stake fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">焼け焦げた壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">焼け焦げたブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モダンな壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モダンな柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tent wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テントの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block covered with roots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">根に覆われた土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tent pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テントの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Invisiblel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(透明)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An invisible block used to separate rooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部屋の区間を区切るための見えないブロック。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirror wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鏡の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硝子の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ship block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casino wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カジノの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上質板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上質板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Interior)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(室内)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Exterior)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(野外)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rope pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロープの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gear fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歯車のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">障子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atrium wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吹き抜けの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block covered with vines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔦の生えた土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金属のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeleton stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スケルトン階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">箪笥階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake wall(experimental)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">飾りの壁(実験的)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undersea block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barbed wire fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有刺鉄線のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sponge block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スポンジのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 13.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.126</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wooden fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の段差</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rooftop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根トップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丸太のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deco block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">装飾ブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の段差</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硝子のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scaffold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">足場</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建築には欠かせない足場。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mirror block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鏡のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinforced plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">補強された板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magma block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溶岩のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大木のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fluffy block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もふもふしたブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organ block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臓器のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金属のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ladder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハシゴ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thick plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">厚い板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丸太の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arch wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーチの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wooden pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arch pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーチの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jail wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">牢屋の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumiest wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルミエストの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stake fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杭のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">焼け焦げた壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">焼け焦げたブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modern wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モダンな壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modern pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モダンな柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tent wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テントの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block covered with roots </t>
-  </si>
-  <si>
-    <t xml:space="preserve">根に覆われた土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tent pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テントの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Invisiblel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(透明)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An invisible block used to separate rooms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">部屋の区間を区切るための見えないブロック。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mirror wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鏡の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硝子の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ship block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casino wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カジノの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上質板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上質板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Interior)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(室内)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Exterior)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(野外)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rope pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ロープの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gear fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">歯車のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">障子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atrium wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吹き抜けの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block covered with vines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔦の生えた土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">滝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金属のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeleton stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケルトン階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箪笥階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 13.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.126</t>
+    <t xml:space="preserve">EA 23.130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.150 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">土方块</t>
@@ -1446,6 +1524,18 @@
   </si>
   <si>
     <t xml:space="preserve">柜子楼梯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">装饰墙壁(实验用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底方块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚方块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带刺铁栅栏</t>
   </si>
   <si>
     <t xml:space="preserve">建筑中不可缺少的立足点。</t>
@@ -1563,7 +1653,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1575,10 +1665,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1594,10 +1684,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1613,10 +1703,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1632,10 +1722,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1651,10 +1741,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1670,10 +1760,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1689,10 +1779,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1708,10 +1798,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1727,10 +1817,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1746,10 +1836,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1765,10 +1855,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1784,10 +1874,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1803,10 +1893,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1815,7 +1905,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1827,10 +1917,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1846,10 +1936,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1865,10 +1955,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1884,10 +1974,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1903,10 +1993,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1922,10 +2012,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1941,10 +2031,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1960,10 +2050,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1979,10 +2069,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C25" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1998,10 +2088,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2017,10 +2107,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -2036,10 +2126,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -2055,10 +2145,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C29" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -2074,10 +2164,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C30" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2093,10 +2183,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2105,7 +2195,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2117,10 +2207,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2136,10 +2226,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2155,10 +2245,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2174,10 +2264,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2193,10 +2283,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2212,10 +2302,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2231,10 +2321,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2250,10 +2340,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2269,10 +2359,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2288,10 +2378,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2307,10 +2397,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2326,10 +2416,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C43" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2345,10 +2435,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2364,10 +2454,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C45" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2383,10 +2473,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2402,10 +2492,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C47" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2421,10 +2511,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C48" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2440,10 +2530,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2459,10 +2549,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2478,10 +2568,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2497,10 +2587,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2516,10 +2606,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2535,10 +2625,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2554,10 +2644,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2573,10 +2663,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C56" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2592,10 +2682,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2611,10 +2701,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2630,10 +2720,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2649,10 +2739,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2668,10 +2758,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C61" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2687,10 +2777,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2706,10 +2796,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C63" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2725,10 +2815,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C64" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2744,10 +2834,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C65" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2763,10 +2853,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C66" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2782,10 +2872,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C67" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2801,10 +2891,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C68" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2820,10 +2910,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C69" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2839,10 +2929,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C70" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -2858,10 +2948,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C71" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -2877,10 +2967,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -2896,10 +2986,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C73" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -2915,10 +3005,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C74" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -2934,10 +3024,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C75" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -2953,10 +3043,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -2972,10 +3062,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C77" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -2991,10 +3081,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C78" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -3010,10 +3100,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C79" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -3029,10 +3119,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -3048,10 +3138,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C81" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -3067,10 +3157,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C82" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3086,10 +3176,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C83" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3105,10 +3195,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C84" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3124,10 +3214,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C85" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3143,10 +3233,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C86" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3162,10 +3252,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C87" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3181,10 +3271,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C88" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3200,10 +3290,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C89" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3219,10 +3309,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C90" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3238,10 +3328,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C91" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3257,10 +3347,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C92" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3276,10 +3366,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C93" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3295,10 +3385,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3314,10 +3404,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C95" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3333,10 +3423,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C96" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3352,10 +3442,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C97" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3371,10 +3461,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C98" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3390,10 +3480,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C99" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3409,10 +3499,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C100" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3428,10 +3518,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C101" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3447,10 +3537,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C102" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3466,10 +3556,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C103" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3485,10 +3575,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C104" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3504,10 +3594,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C105" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3523,10 +3613,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C106" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3542,10 +3632,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C107" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3561,10 +3651,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C108" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3580,10 +3670,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C109" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3599,10 +3689,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C110" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3618,10 +3708,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C111" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3637,10 +3727,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C112" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3656,10 +3746,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C113" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3675,10 +3765,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3694,10 +3784,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C115" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3713,10 +3803,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C116" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3732,10 +3822,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C117" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3751,10 +3841,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C118" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3770,10 +3860,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C119" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3789,10 +3879,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C120" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3808,10 +3898,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C121" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -3827,10 +3917,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C122" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -3846,10 +3936,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C123" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -3865,10 +3955,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C124" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -3884,10 +3974,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C125" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -3903,10 +3993,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C126" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -3922,10 +4012,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C127" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -3941,10 +4031,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C128" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -3960,10 +4050,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C129" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -3979,10 +4069,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C130" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -3998,10 +4088,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C131" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -4010,7 +4100,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -4024,10 +4114,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C132" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -4043,10 +4133,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C133" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -4062,10 +4152,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C134" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4081,10 +4171,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C135" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4100,10 +4190,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C136" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4119,10 +4209,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C137" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4138,10 +4228,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C138" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4157,10 +4247,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C139" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4176,10 +4266,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4195,10 +4285,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C141" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4214,10 +4304,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C142" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4233,10 +4323,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C143" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4252,10 +4342,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4271,10 +4361,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="C145" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4290,10 +4380,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C146" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4309,10 +4399,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C147" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4328,10 +4418,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C148" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4347,10 +4437,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C149" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4366,10 +4456,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C150" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4385,10 +4475,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C151" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4404,10 +4494,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C152" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4423,10 +4513,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C153" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4442,10 +4532,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C154" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4461,10 +4551,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C155" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4480,10 +4570,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C156" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4499,10 +4589,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C157" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4518,10 +4608,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C158" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4537,10 +4627,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C159" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4556,10 +4646,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C160" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4575,10 +4665,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C161" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4594,10 +4684,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C162" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4613,10 +4703,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C163" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4632,10 +4722,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C164" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4651,10 +4741,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C165" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4670,7 +4760,7 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C166" t="s">
         <v>335</v>
@@ -4689,7 +4779,7 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C167" t="s">
         <v>335</v>
@@ -4708,10 +4798,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C168" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4727,10 +4817,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C169" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4746,10 +4836,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C170" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -4765,10 +4855,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C171" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -4784,10 +4874,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C172" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4803,10 +4893,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C173" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4822,10 +4912,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C174" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -4841,10 +4931,10 @@
         <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C175" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="D175" t="s">
         <v>355</v>
@@ -4860,10 +4950,10 @@
         <v>357</v>
       </c>
       <c r="B176" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="C176" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="D176" t="s">
         <v>355</v>
@@ -4879,10 +4969,10 @@
         <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="C177" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="D177" t="s">
         <v>359</v>
@@ -4898,10 +4988,10 @@
         <v>361</v>
       </c>
       <c r="B178" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C178" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -4917,10 +5007,10 @@
         <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C179" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
@@ -4936,10 +5026,10 @@
         <v>363</v>
       </c>
       <c r="B180" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C180" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
@@ -4955,10 +5045,10 @@
         <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C181" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -4974,10 +5064,10 @@
         <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C182" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -4993,10 +5083,10 @@
         <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C183" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -5012,7 +5102,10 @@
         <v>367</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>409</v>
+      </c>
+      <c r="C184" t="s">
+        <v>422</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -5028,7 +5121,10 @@
         <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>409</v>
+      </c>
+      <c r="C185" t="s">
+        <v>422</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
@@ -5038,6 +5134,174 @@
       </c>
       <c r="G185"/>
       <c r="H185"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" t="s">
+        <v>410</v>
+      </c>
+      <c r="C186" t="s">
+        <v>422</v>
+      </c>
+      <c r="D186" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" t="s">
+        <v>30</v>
+      </c>
+      <c r="G186"/>
+      <c r="H186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" t="s">
+        <v>410</v>
+      </c>
+      <c r="C187" t="s">
+        <v>422</v>
+      </c>
+      <c r="D187" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187"/>
+      <c r="H187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" t="s">
+        <v>410</v>
+      </c>
+      <c r="C188" t="s">
+        <v>417</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188"/>
+      <c r="H188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" t="s">
+        <v>411</v>
+      </c>
+      <c r="C189" t="s">
+        <v>503</v>
+      </c>
+      <c r="D189" t="s">
+        <v>373</v>
+      </c>
+      <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="G189"/>
+      <c r="H189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" t="s">
+        <v>412</v>
+      </c>
+      <c r="C190" t="s">
+        <v>504</v>
+      </c>
+      <c r="D190" t="s">
+        <v>376</v>
+      </c>
+      <c r="E190" t="s">
+        <v>377</v>
+      </c>
+      <c r="G190"/>
+      <c r="H190"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" t="s">
+        <v>413</v>
+      </c>
+      <c r="C191" t="s">
+        <v>504</v>
+      </c>
+      <c r="D191" t="s">
+        <v>376</v>
+      </c>
+      <c r="E191" t="s">
+        <v>377</v>
+      </c>
+      <c r="G191"/>
+      <c r="H191"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" t="s">
+        <v>414</v>
+      </c>
+      <c r="C192" t="s">
+        <v>505</v>
+      </c>
+      <c r="D192" t="s">
+        <v>380</v>
+      </c>
+      <c r="E192" t="s">
+        <v>381</v>
+      </c>
+      <c r="G192"/>
+      <c r="H192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" t="s">
+        <v>415</v>
+      </c>
+      <c r="C193" t="s">
+        <v>506</v>
+      </c>
+      <c r="D193" t="s">
+        <v>383</v>
+      </c>
+      <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="G193"/>
+      <c r="H193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>385</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" t="s">
+        <v>386</v>
+      </c>
+      <c r="E194" t="s">
+        <v>387</v>
+      </c>
+      <c r="G194"/>
+      <c r="H194"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Block.xlsx
+++ b/Original/CN/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="550">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1225 +44,1318 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wooden fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の段差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rooftop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屋根トップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丸太のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deco block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">装飾ブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の段差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硝子のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scaffold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">足場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建築には欠かせない足場。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirror block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鏡のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinforced plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">補強された板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magma block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶岩のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大木のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluffy block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もふもふしたブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organ block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臓器のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金属のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank ramp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の傾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハシゴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thick plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厚い板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丸太の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アーチの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wooden pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉瓦の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アーチの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jail wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牢屋の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lumiest wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルミエストの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stake fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">焼け焦げた壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">焼け焦げたブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandbag wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土嚢の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自然の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plank half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">板の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モダンな壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone half-stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石の半階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モダンな柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tent wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テントの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block covered with roots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">根に覆われた土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tent pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テントの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都の柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmian block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王都のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Invisiblel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(透明)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An invisible block used to separate rooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部屋の区間を区切るための見えないブロック。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirror wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鏡の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硝子の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ship block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">船のブロック3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casino wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カジノの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality plank block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上質板のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality plank wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上質板の壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Interior)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(室内)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor Block(Exterior)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊ブロック(野外)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plain block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆喰のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rope pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロープの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gear fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歯車のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">障子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atrium wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吹き抜けの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil block covered with vines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔦の生えた土のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金属のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeleton stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スケルトン階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">箪笥階段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake wall(experimental)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">飾りの壁(実験的)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undersea block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barbed wire fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有刺鉄線のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謎のブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sponage block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スポンジのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cookie block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クッキーのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスケットのブロック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスケットの壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスケットの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キノコの柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 13.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.150 Patch 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wooden fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の段差</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rooftop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">屋根トップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丸太のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deco block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">装飾ブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の段差</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硝子のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scaffold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">足場</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建築には欠かせない足場。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mirror block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鏡のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinforced plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">補強された板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magma block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溶岩のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大木のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fluffy block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もふもふしたブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organ block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臓器のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金属のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank ramp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の傾斜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ladder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハシゴ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thick plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">厚い板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丸太の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arch wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーチの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wooden pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉瓦の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arch pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーチの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jail wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">牢屋の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumiest wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルミエストの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stake fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杭のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">焼け焦げた壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">焼け焦げたブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandbag wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土嚢の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plank half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">板の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modern wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モダンな壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone half-stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石の半階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modern pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モダンな柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tent wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テントの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block covered with roots </t>
-  </si>
-  <si>
-    <t xml:space="preserve">根に覆われた土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tent pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テントの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都の柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmian block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王都のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Invisiblel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(透明)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An invisible block used to separate rooms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">部屋の区間を区切るための見えないブロック。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mirror wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鏡の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硝子の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ship block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船のブロック3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casino wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カジノの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality plank block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上質板のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality plank wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上質板の壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Interior)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(室内)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor Block(Exterior)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊ブロック(野外)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plain block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆喰のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rope pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ロープの柱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gear fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">歯車のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">障子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atrium wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吹き抜けの壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil block covered with vines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">蔦の生えた土のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">滝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金属のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skeleton stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スケルトン階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf stairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">箪笥階段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake wall(experimental)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">飾りの壁(実験的)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undersea block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海底のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚のブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barbed wire fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有刺鉄線のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sponge block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スポンジのブロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 13.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.150 Patch 1</t>
+    <t xml:space="preserve">EA 23.167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.183</t>
   </si>
   <si>
     <t xml:space="preserve">土方块</t>
@@ -1536,6 +1629,36 @@
   </si>
   <si>
     <t xml:space="preserve">带刺铁栅栏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谜之方块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巧克力方块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海绵方块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲奇方块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巧克力墙壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饼干方块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饼干墙壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巧克力柱子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饼干柱子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蘑菇柱子</t>
   </si>
   <si>
     <t xml:space="preserve">建筑中不可缺少的立足点。</t>
@@ -1653,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1665,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1684,10 +1807,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1703,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C6" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1722,10 +1845,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1741,10 +1864,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1760,10 +1883,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1779,10 +1902,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1798,10 +1921,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1817,10 +1940,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1836,10 +1959,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1855,10 +1978,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1874,10 +1997,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1893,10 +2016,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C16" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1905,7 +2028,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -1917,10 +2040,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -1936,10 +2059,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1955,10 +2078,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -1974,10 +2097,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -1993,10 +2116,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -2012,10 +2135,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -2031,10 +2154,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C23" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2050,10 +2173,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2069,10 +2192,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C25" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -2088,10 +2211,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2107,10 +2230,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -2126,10 +2249,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C28" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -2145,10 +2268,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -2164,10 +2287,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C30" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2183,10 +2306,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C31" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2195,7 +2318,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2207,10 +2330,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2226,10 +2349,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C33" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2245,10 +2368,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C34" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2264,10 +2387,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C35" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2283,10 +2406,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2302,10 +2425,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2321,10 +2444,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2340,10 +2463,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2359,10 +2482,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2378,10 +2501,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2397,10 +2520,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C42" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2416,10 +2539,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C43" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2435,10 +2558,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2454,10 +2577,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2473,10 +2596,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C46" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2492,10 +2615,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2511,10 +2634,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2530,10 +2653,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2549,10 +2672,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C50" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2568,10 +2691,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2587,10 +2710,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2606,10 +2729,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C53" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2625,10 +2748,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C54" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2644,10 +2767,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C55" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2663,10 +2786,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C56" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2682,10 +2805,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C57" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2701,10 +2824,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C58" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2720,10 +2843,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2739,10 +2862,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C60" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2758,10 +2881,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C61" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2777,10 +2900,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C62" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2796,10 +2919,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C63" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2815,10 +2938,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2834,10 +2957,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C65" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2853,10 +2976,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2872,10 +2995,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -2891,10 +3014,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C68" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2910,10 +3033,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C69" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2929,10 +3052,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C70" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -2948,10 +3071,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C71" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -2967,10 +3090,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C72" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -2986,10 +3109,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C73" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -3005,10 +3128,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -3024,10 +3147,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C75" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -3043,10 +3166,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C76" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -3062,10 +3185,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C77" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -3081,10 +3204,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C78" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -3100,10 +3223,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -3119,10 +3242,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C80" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -3138,10 +3261,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C81" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -3157,10 +3280,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C82" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3176,10 +3299,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C83" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3195,10 +3318,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C84" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3214,10 +3337,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C85" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3233,10 +3356,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C86" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3252,10 +3375,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C87" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3271,10 +3394,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3290,10 +3413,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3309,10 +3432,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3328,10 +3451,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C91" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3347,10 +3470,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C92" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3366,10 +3489,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C93" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3385,10 +3508,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C94" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3404,10 +3527,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3423,10 +3546,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C96" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3442,10 +3565,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C97" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3461,10 +3584,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3480,10 +3603,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C99" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3499,10 +3622,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3518,10 +3641,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3537,10 +3660,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C102" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3556,10 +3679,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C103" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3575,10 +3698,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C104" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3594,10 +3717,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C105" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3613,10 +3736,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C106" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3632,10 +3755,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C107" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3651,10 +3774,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C108" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3670,10 +3793,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C109" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3689,10 +3812,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C110" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3708,10 +3831,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C111" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3727,10 +3850,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C112" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3746,10 +3869,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C113" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3765,10 +3888,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C114" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3784,10 +3907,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C115" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3803,10 +3926,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C116" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3822,10 +3945,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3841,10 +3964,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C118" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3860,10 +3983,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C119" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -3879,10 +4002,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C120" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -3898,10 +4021,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C121" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -3917,10 +4040,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C122" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -3936,10 +4059,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C123" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -3955,10 +4078,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -3974,10 +4097,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C125" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -3993,10 +4116,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C126" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -4012,10 +4135,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C127" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -4031,10 +4154,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C128" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -4050,10 +4173,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C129" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -4069,10 +4192,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C130" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -4088,10 +4211,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C131" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -4100,7 +4223,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -4114,10 +4237,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C132" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -4133,10 +4256,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C133" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -4152,10 +4275,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C134" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4171,10 +4294,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4190,10 +4313,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4209,10 +4332,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C137" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4228,10 +4351,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C138" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4247,10 +4370,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C139" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4266,10 +4389,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C140" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4285,10 +4408,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4304,10 +4427,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C142" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4323,10 +4446,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C143" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4342,10 +4465,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="C144" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4361,10 +4484,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="C145" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4380,10 +4503,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C146" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4399,10 +4522,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C147" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4418,10 +4541,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C148" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4437,10 +4560,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C149" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4456,10 +4579,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C150" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4475,10 +4598,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C151" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4494,10 +4617,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C152" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4513,10 +4636,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C153" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4532,10 +4655,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C154" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4551,10 +4674,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C155" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4570,10 +4693,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4589,10 +4712,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4608,10 +4731,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C158" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4627,10 +4750,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C159" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4646,10 +4769,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="C160" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4665,10 +4788,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="C161" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4684,10 +4807,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C162" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4703,10 +4826,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C163" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4722,10 +4845,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4741,10 +4864,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C165" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4760,7 +4883,7 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="C166" t="s">
         <v>335</v>
@@ -4779,7 +4902,7 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="C167" t="s">
         <v>335</v>
@@ -4798,10 +4921,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C168" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4817,10 +4940,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="C169" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4836,10 +4959,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="C170" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -4855,10 +4978,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="C171" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -4874,10 +4997,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C172" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -4893,10 +5016,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C173" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -4912,10 +5035,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="C174" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -4931,10 +5054,10 @@
         <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C175" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="D175" t="s">
         <v>355</v>
@@ -4950,10 +5073,10 @@
         <v>357</v>
       </c>
       <c r="B176" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C176" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="D176" t="s">
         <v>355</v>
@@ -4969,10 +5092,10 @@
         <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C177" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="D177" t="s">
         <v>359</v>
@@ -4988,10 +5111,10 @@
         <v>361</v>
       </c>
       <c r="B178" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="C178" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -5007,10 +5130,10 @@
         <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C179" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
@@ -5026,10 +5149,10 @@
         <v>363</v>
       </c>
       <c r="B180" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="C180" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
@@ -5045,10 +5168,10 @@
         <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="C181" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -5064,10 +5187,10 @@
         <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C182" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -5083,10 +5206,10 @@
         <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="C183" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -5102,10 +5225,10 @@
         <v>367</v>
       </c>
       <c r="B184" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="C184" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -5121,10 +5244,10 @@
         <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="C185" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
@@ -5140,10 +5263,10 @@
         <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C186" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -5159,10 +5282,10 @@
         <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C187" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
@@ -5178,10 +5301,10 @@
         <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C188" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
@@ -5197,10 +5320,10 @@
         <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="C189" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="D189" t="s">
         <v>373</v>
@@ -5216,10 +5339,10 @@
         <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="C190" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="D190" t="s">
         <v>376</v>
@@ -5235,10 +5358,10 @@
         <v>378</v>
       </c>
       <c r="B191" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C191" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="D191" t="s">
         <v>376</v>
@@ -5254,10 +5377,10 @@
         <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C192" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="D192" t="s">
         <v>380</v>
@@ -5273,10 +5396,10 @@
         <v>382</v>
       </c>
       <c r="B193" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="C193" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="D193" t="s">
         <v>383</v>
@@ -5292,7 +5415,10 @@
         <v>385</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>443</v>
+      </c>
+      <c r="C194" t="s">
+        <v>538</v>
       </c>
       <c r="D194" t="s">
         <v>386</v>
@@ -5302,6 +5428,177 @@
       </c>
       <c r="G194"/>
       <c r="H194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
+        <v>444</v>
+      </c>
+      <c r="C195" t="s">
+        <v>539</v>
+      </c>
+      <c r="D195" t="s">
+        <v>389</v>
+      </c>
+      <c r="E195" t="s">
+        <v>390</v>
+      </c>
+      <c r="G195"/>
+      <c r="H195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196" t="s">
+        <v>444</v>
+      </c>
+      <c r="C196" t="s">
+        <v>540</v>
+      </c>
+      <c r="D196" t="s">
+        <v>392</v>
+      </c>
+      <c r="E196" t="s">
+        <v>393</v>
+      </c>
+      <c r="G196"/>
+      <c r="H196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" t="s">
+        <v>444</v>
+      </c>
+      <c r="C197" t="s">
+        <v>541</v>
+      </c>
+      <c r="D197" t="s">
+        <v>395</v>
+      </c>
+      <c r="E197" t="s">
+        <v>396</v>
+      </c>
+      <c r="G197"/>
+      <c r="H197"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s">
+        <v>444</v>
+      </c>
+      <c r="C198" t="s">
+        <v>542</v>
+      </c>
+      <c r="D198" t="s">
+        <v>398</v>
+      </c>
+      <c r="E198" t="s">
+        <v>399</v>
+      </c>
+      <c r="G198"/>
+      <c r="H198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>400</v>
+      </c>
+      <c r="B199" t="s">
+        <v>445</v>
+      </c>
+      <c r="C199" t="s">
+        <v>543</v>
+      </c>
+      <c r="D199" t="s">
+        <v>401</v>
+      </c>
+      <c r="E199" t="s">
+        <v>402</v>
+      </c>
+      <c r="G199"/>
+      <c r="H199"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>403</v>
+      </c>
+      <c r="B200" t="s">
+        <v>445</v>
+      </c>
+      <c r="C200" t="s">
+        <v>544</v>
+      </c>
+      <c r="D200" t="s">
+        <v>404</v>
+      </c>
+      <c r="E200" t="s">
+        <v>405</v>
+      </c>
+      <c r="G200"/>
+      <c r="H200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>406</v>
+      </c>
+      <c r="B201" t="s">
+        <v>445</v>
+      </c>
+      <c r="C201" t="s">
+        <v>545</v>
+      </c>
+      <c r="D201" t="s">
+        <v>407</v>
+      </c>
+      <c r="E201" t="s">
+        <v>408</v>
+      </c>
+      <c r="G201"/>
+      <c r="H201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>409</v>
+      </c>
+      <c r="B202" t="s">
+        <v>445</v>
+      </c>
+      <c r="C202" t="s">
+        <v>546</v>
+      </c>
+      <c r="D202" t="s">
+        <v>410</v>
+      </c>
+      <c r="E202" t="s">
+        <v>411</v>
+      </c>
+      <c r="G202"/>
+      <c r="H202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" t="s">
+        <v>446</v>
+      </c>
+      <c r="C203" t="s">
+        <v>547</v>
+      </c>
+      <c r="D203" t="s">
+        <v>413</v>
+      </c>
+      <c r="E203" t="s">
+        <v>414</v>
+      </c>
+      <c r="G203"/>
+      <c r="H203"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Block.xlsx
+++ b/Original/CN/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="562">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1262,6 +1262,30 @@
     <t xml:space="preserve">キノコの柱</t>
   </si>
   <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire mesh fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金網のフェンス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石のフェンス</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1358,6 +1382,12 @@
     <t xml:space="preserve">EA 23.183</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.238</t>
+  </si>
+  <si>
     <t xml:space="preserve">土方块</t>
   </si>
   <si>
@@ -1659,6 +1689,12 @@
   </si>
   <si>
     <t xml:space="preserve">蘑菇柱子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铁丝网栅栏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石头栅栏</t>
   </si>
   <si>
     <t xml:space="preserve">建筑中不可缺少的立足点。</t>
@@ -1776,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1788,10 +1824,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1807,10 +1843,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1826,10 +1862,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1845,10 +1881,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1864,10 +1900,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1883,10 +1919,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1902,10 +1938,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1921,10 +1957,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1940,10 +1976,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1959,10 +1995,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -1978,10 +2014,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1997,10 +2033,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -2016,10 +2052,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -2028,7 +2064,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -2040,10 +2076,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -2059,10 +2095,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -2078,10 +2114,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C19" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2097,10 +2133,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -2116,10 +2152,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -2135,10 +2171,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C22" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -2154,10 +2190,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2173,10 +2209,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C24" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2192,10 +2228,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C25" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -2211,10 +2247,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2230,10 +2266,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -2249,10 +2285,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -2268,10 +2304,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -2287,10 +2323,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C30" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2306,10 +2342,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C31" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2318,7 +2354,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2330,10 +2366,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C32" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2349,10 +2385,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C33" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2368,10 +2404,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C34" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2387,10 +2423,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2406,10 +2442,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2425,10 +2461,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C37" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2444,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C38" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2463,10 +2499,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C39" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2482,10 +2518,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C40" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2501,10 +2537,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C41" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2520,10 +2556,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2539,10 +2575,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C43" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2558,10 +2594,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C44" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2577,10 +2613,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C45" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2596,10 +2632,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C46" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2615,10 +2651,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C47" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2634,10 +2670,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C48" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2653,10 +2689,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C49" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2672,10 +2708,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C50" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2691,10 +2727,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C51" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2710,10 +2746,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2729,10 +2765,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C53" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2748,10 +2784,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C54" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2767,10 +2803,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C55" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2786,10 +2822,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C56" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2805,10 +2841,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C57" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2824,10 +2860,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C58" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2843,10 +2879,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C59" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2862,10 +2898,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C60" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2881,10 +2917,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C61" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2900,10 +2936,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C62" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2919,10 +2955,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C63" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2938,10 +2974,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C64" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2957,10 +2993,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C65" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -2976,10 +3012,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C66" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -2995,10 +3031,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C67" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -3014,10 +3050,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C68" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -3033,10 +3069,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C69" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3052,10 +3088,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C70" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -3071,10 +3107,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C71" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -3090,10 +3126,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C72" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -3109,10 +3145,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C73" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -3128,10 +3164,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C74" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -3147,10 +3183,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C75" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -3166,10 +3202,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C76" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -3185,10 +3221,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C77" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -3204,10 +3240,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -3223,10 +3259,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C79" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -3242,10 +3278,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C80" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -3261,10 +3297,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C81" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -3280,10 +3316,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C82" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3299,10 +3335,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C83" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3318,10 +3354,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C84" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3337,10 +3373,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C85" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3356,10 +3392,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C86" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3375,10 +3411,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C87" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3394,10 +3430,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C88" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3413,10 +3449,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C89" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3432,10 +3468,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C90" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3451,10 +3487,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C91" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3470,10 +3506,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C92" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3489,10 +3525,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C93" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3508,10 +3544,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C94" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3527,10 +3563,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C95" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3546,10 +3582,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C96" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3565,10 +3601,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C97" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3584,10 +3620,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3603,10 +3639,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C99" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3622,10 +3658,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C100" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3641,10 +3677,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C101" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3660,10 +3696,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C102" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3679,10 +3715,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C103" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3698,10 +3734,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C104" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3717,10 +3753,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3736,10 +3772,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C106" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3755,10 +3791,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C107" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3774,10 +3810,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C108" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3793,10 +3829,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C109" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3812,10 +3848,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C110" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3831,10 +3867,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C111" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3850,10 +3886,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C112" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3869,10 +3905,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C113" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3888,10 +3924,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C114" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3907,10 +3943,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C115" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3926,10 +3962,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C116" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3945,10 +3981,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C117" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -3964,10 +4000,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C118" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -3983,10 +4019,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C119" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -4002,10 +4038,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C120" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -4021,10 +4057,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C121" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -4040,10 +4076,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C122" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -4059,10 +4095,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C123" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -4078,10 +4114,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C124" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -4097,10 +4133,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C125" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -4116,10 +4152,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C126" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -4135,10 +4171,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C127" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -4154,10 +4190,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C128" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -4173,10 +4209,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C129" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -4192,10 +4228,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C130" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -4211,10 +4247,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C131" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -4223,7 +4259,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -4237,10 +4273,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C132" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -4256,10 +4292,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C133" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -4275,10 +4311,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C134" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4294,10 +4330,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C135" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4313,10 +4349,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C136" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4332,10 +4368,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C137" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4351,10 +4387,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C138" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4370,10 +4406,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C139" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4389,10 +4425,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C140" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4408,10 +4444,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C141" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4427,10 +4463,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C142" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4446,10 +4482,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C143" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4465,10 +4501,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C144" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4484,10 +4520,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C145" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4503,10 +4539,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C146" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4522,10 +4558,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C147" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4541,10 +4577,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C148" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4560,10 +4596,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C149" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4579,10 +4615,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C150" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4598,10 +4634,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C151" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4617,10 +4653,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C152" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4636,10 +4672,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C153" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4655,10 +4691,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C154" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4674,10 +4710,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C155" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4693,10 +4729,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C156" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4712,10 +4748,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C157" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4731,10 +4767,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C158" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4750,10 +4786,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C159" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4769,10 +4805,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C160" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4788,10 +4824,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C161" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4807,10 +4843,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C162" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4826,10 +4862,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C163" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4845,10 +4881,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C164" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4864,10 +4900,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C165" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4883,7 +4919,7 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C166" t="s">
         <v>335</v>
@@ -4902,7 +4938,7 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C167" t="s">
         <v>335</v>
@@ -4921,10 +4957,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C168" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4940,10 +4976,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C169" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4959,10 +4995,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C170" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -4978,10 +5014,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C171" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -4997,10 +5033,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C172" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -5016,10 +5052,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C173" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -5035,10 +5071,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C174" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -5054,10 +5090,10 @@
         <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C175" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D175" t="s">
         <v>355</v>
@@ -5073,10 +5109,10 @@
         <v>357</v>
       </c>
       <c r="B176" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C176" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D176" t="s">
         <v>355</v>
@@ -5092,10 +5128,10 @@
         <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C177" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D177" t="s">
         <v>359</v>
@@ -5111,10 +5147,10 @@
         <v>361</v>
       </c>
       <c r="B178" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C178" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -5130,10 +5166,10 @@
         <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C179" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
@@ -5149,10 +5185,10 @@
         <v>363</v>
       </c>
       <c r="B180" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C180" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
@@ -5168,10 +5204,10 @@
         <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C181" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -5187,10 +5223,10 @@
         <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C182" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -5206,10 +5242,10 @@
         <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C183" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -5225,10 +5261,10 @@
         <v>367</v>
       </c>
       <c r="B184" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C184" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -5244,10 +5280,10 @@
         <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C185" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
@@ -5263,10 +5299,10 @@
         <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C186" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -5282,10 +5318,10 @@
         <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
@@ -5301,10 +5337,10 @@
         <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C188" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
@@ -5320,10 +5356,10 @@
         <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C189" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D189" t="s">
         <v>373</v>
@@ -5339,10 +5375,10 @@
         <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C190" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D190" t="s">
         <v>376</v>
@@ -5358,10 +5394,10 @@
         <v>378</v>
       </c>
       <c r="B191" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C191" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D191" t="s">
         <v>376</v>
@@ -5377,10 +5413,10 @@
         <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C192" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D192" t="s">
         <v>380</v>
@@ -5396,10 +5432,10 @@
         <v>382</v>
       </c>
       <c r="B193" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C193" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="D193" t="s">
         <v>383</v>
@@ -5415,10 +5451,10 @@
         <v>385</v>
       </c>
       <c r="B194" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C194" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="D194" t="s">
         <v>386</v>
@@ -5434,10 +5470,10 @@
         <v>388</v>
       </c>
       <c r="B195" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C195" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="D195" t="s">
         <v>389</v>
@@ -5453,10 +5489,10 @@
         <v>391</v>
       </c>
       <c r="B196" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C196" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D196" t="s">
         <v>392</v>
@@ -5472,10 +5508,10 @@
         <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C197" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D197" t="s">
         <v>395</v>
@@ -5491,10 +5527,10 @@
         <v>397</v>
       </c>
       <c r="B198" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C198" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="D198" t="s">
         <v>398</v>
@@ -5510,10 +5546,10 @@
         <v>400</v>
       </c>
       <c r="B199" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C199" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D199" t="s">
         <v>401</v>
@@ -5529,10 +5565,10 @@
         <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C200" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D200" t="s">
         <v>404</v>
@@ -5548,10 +5584,10 @@
         <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C201" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D201" t="s">
         <v>407</v>
@@ -5567,10 +5603,10 @@
         <v>409</v>
       </c>
       <c r="B202" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C202" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="D202" t="s">
         <v>410</v>
@@ -5586,10 +5622,10 @@
         <v>412</v>
       </c>
       <c r="B203" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C203" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="D203" t="s">
         <v>413</v>
@@ -5599,6 +5635,82 @@
       </c>
       <c r="G203"/>
       <c r="H203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>415</v>
+      </c>
+      <c r="B204" t="s">
+        <v>455</v>
+      </c>
+      <c r="C204" t="s">
+        <v>471</v>
+      </c>
+      <c r="D204" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" t="s">
+        <v>60</v>
+      </c>
+      <c r="G204"/>
+      <c r="H204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>416</v>
+      </c>
+      <c r="B205" t="s">
+        <v>456</v>
+      </c>
+      <c r="C205" t="s">
+        <v>558</v>
+      </c>
+      <c r="D205" t="s">
+        <v>417</v>
+      </c>
+      <c r="E205" t="s">
+        <v>418</v>
+      </c>
+      <c r="G205"/>
+      <c r="H205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" t="s">
+        <v>456</v>
+      </c>
+      <c r="C206" t="s">
+        <v>558</v>
+      </c>
+      <c r="D206" t="s">
+        <v>417</v>
+      </c>
+      <c r="E206" t="s">
+        <v>418</v>
+      </c>
+      <c r="G206"/>
+      <c r="H206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" t="s">
+        <v>456</v>
+      </c>
+      <c r="C207" t="s">
+        <v>559</v>
+      </c>
+      <c r="D207" t="s">
+        <v>421</v>
+      </c>
+      <c r="E207" t="s">
+        <v>422</v>
+      </c>
+      <c r="G207"/>
+      <c r="H207"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Block.xlsx
+++ b/Original/CN/Game/Block.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="550">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1262,30 +1262,6 @@
     <t xml:space="preserve">キノコの柱</t>
   </si>
   <si>
-    <t xml:space="preserve">201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wire mesh fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金網のフェンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone fence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石のフェンス</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1382,12 +1358,6 @@
     <t xml:space="preserve">EA 23.183</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.238</t>
-  </si>
-  <si>
     <t xml:space="preserve">土方块</t>
   </si>
   <si>
@@ -1689,12 +1659,6 @@
   </si>
   <si>
     <t xml:space="preserve">蘑菇柱子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铁丝网栅栏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石头栅栏</t>
   </si>
   <si>
     <t xml:space="preserve">建筑中不可缺少的立足点。</t>
@@ -1812,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1824,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1843,10 +1807,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1862,10 +1826,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1881,10 +1845,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1900,10 +1864,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1919,10 +1883,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1938,10 +1902,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1957,10 +1921,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1976,10 +1940,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1995,10 +1959,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -2014,10 +1978,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -2033,10 +1997,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -2052,10 +2016,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C16" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -2064,7 +2028,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -2076,10 +2040,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -2095,10 +2059,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C18" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -2114,10 +2078,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2133,10 +2097,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -2152,10 +2116,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -2171,10 +2135,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -2190,10 +2154,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2209,10 +2173,10 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2228,10 +2192,10 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -2247,10 +2211,10 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C26" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -2266,10 +2230,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -2285,10 +2249,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C28" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -2304,10 +2268,10 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
         <v>75</v>
@@ -2323,10 +2287,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C30" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2342,10 +2306,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C31" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -2354,7 +2318,7 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -2366,10 +2330,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -2385,10 +2349,10 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C33" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D33" t="s">
         <v>83</v>
@@ -2404,10 +2368,10 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C34" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -2423,10 +2387,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C35" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -2442,10 +2406,10 @@
         <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -2461,10 +2425,10 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
@@ -2480,10 +2444,10 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C38" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -2499,10 +2463,10 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D39" t="s">
         <v>97</v>
@@ -2518,10 +2482,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -2537,10 +2501,10 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -2556,10 +2520,10 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C42" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -2575,10 +2539,10 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C43" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -2594,10 +2558,10 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
@@ -2613,10 +2577,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2632,10 +2596,10 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C46" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2651,10 +2615,10 @@
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2670,10 +2634,10 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2689,10 +2653,10 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2708,10 +2672,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C50" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -2727,10 +2691,10 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D51" t="s">
         <v>117</v>
@@ -2746,10 +2710,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
@@ -2765,10 +2729,10 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C53" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
@@ -2784,10 +2748,10 @@
         <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C54" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -2803,10 +2767,10 @@
         <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C55" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D55" t="s">
         <v>129</v>
@@ -2822,10 +2786,10 @@
         <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C56" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D56" t="s">
         <v>132</v>
@@ -2841,10 +2805,10 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C57" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D57" t="s">
         <v>135</v>
@@ -2860,10 +2824,10 @@
         <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C58" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -2879,10 +2843,10 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D59" t="s">
         <v>139</v>
@@ -2898,10 +2862,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C60" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D60" t="s">
         <v>142</v>
@@ -2917,10 +2881,10 @@
         <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C61" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D61" t="s">
         <v>142</v>
@@ -2936,10 +2900,10 @@
         <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C62" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2955,10 +2919,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C63" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
@@ -2974,10 +2938,10 @@
         <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -2993,10 +2957,10 @@
         <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C65" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -3012,10 +2976,10 @@
         <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -3031,10 +2995,10 @@
         <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -3050,10 +3014,10 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C68" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -3069,10 +3033,10 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C69" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3088,10 +3052,10 @@
         <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C70" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
@@ -3107,10 +3071,10 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C71" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
@@ -3126,10 +3090,10 @@
         <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C72" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
@@ -3145,10 +3109,10 @@
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C73" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
@@ -3164,10 +3128,10 @@
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D74" t="s">
         <v>168</v>
@@ -3183,10 +3147,10 @@
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C75" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D75" t="s">
         <v>168</v>
@@ -3202,10 +3166,10 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C76" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
@@ -3221,10 +3185,10 @@
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C77" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
@@ -3240,10 +3204,10 @@
         <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C78" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -3259,10 +3223,10 @@
         <v>174</v>
       </c>
       <c r="B79" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
@@ -3278,10 +3242,10 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C80" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -3297,10 +3261,10 @@
         <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C81" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
@@ -3316,10 +3280,10 @@
         <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C82" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D82" t="s">
         <v>176</v>
@@ -3335,10 +3299,10 @@
         <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C83" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
@@ -3354,10 +3318,10 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C84" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
@@ -3373,10 +3337,10 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C85" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
@@ -3392,10 +3356,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C86" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D86" t="s">
         <v>184</v>
@@ -3411,10 +3375,10 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C87" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3430,10 +3394,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D88" t="s">
         <v>187</v>
@@ -3449,10 +3413,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D89" t="s">
         <v>187</v>
@@ -3468,10 +3432,10 @@
         <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -3487,10 +3451,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C91" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D91" t="s">
         <v>193</v>
@@ -3506,10 +3470,10 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C92" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -3525,10 +3489,10 @@
         <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C93" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -3544,10 +3508,10 @@
         <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C94" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D94" t="s">
         <v>198</v>
@@ -3563,10 +3527,10 @@
         <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D95" t="s">
         <v>139</v>
@@ -3582,10 +3546,10 @@
         <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C96" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D96" t="s">
         <v>202</v>
@@ -3601,10 +3565,10 @@
         <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C97" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D97" t="s">
         <v>202</v>
@@ -3620,10 +3584,10 @@
         <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D98" t="s">
         <v>206</v>
@@ -3639,10 +3603,10 @@
         <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C99" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D99" t="s">
         <v>209</v>
@@ -3658,10 +3622,10 @@
         <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D100" t="s">
         <v>212</v>
@@ -3677,10 +3641,10 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C101" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D101" t="s">
         <v>215</v>
@@ -3696,10 +3660,10 @@
         <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C102" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D102" t="s">
         <v>218</v>
@@ -3715,10 +3679,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C103" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -3734,10 +3698,10 @@
         <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C104" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D104" t="s">
         <v>221</v>
@@ -3753,10 +3717,10 @@
         <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C105" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -3772,10 +3736,10 @@
         <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C106" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D106" t="s">
         <v>225</v>
@@ -3791,10 +3755,10 @@
         <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C107" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D107" t="s">
         <v>225</v>
@@ -3810,10 +3774,10 @@
         <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C108" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D108" t="s">
         <v>225</v>
@@ -3829,10 +3793,10 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C109" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
@@ -3848,10 +3812,10 @@
         <v>231</v>
       </c>
       <c r="B110" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C110" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D110" t="s">
         <v>232</v>
@@ -3867,10 +3831,10 @@
         <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C111" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D111" t="s">
         <v>235</v>
@@ -3886,10 +3850,10 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C112" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D112" t="s">
         <v>235</v>
@@ -3905,10 +3869,10 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C113" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -3924,10 +3888,10 @@
         <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C114" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D114" t="s">
         <v>235</v>
@@ -3943,10 +3907,10 @@
         <v>240</v>
       </c>
       <c r="B115" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C115" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D115" t="s">
         <v>241</v>
@@ -3962,10 +3926,10 @@
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C116" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
@@ -3981,10 +3945,10 @@
         <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D117" t="s">
         <v>245</v>
@@ -4000,10 +3964,10 @@
         <v>247</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C118" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -4019,10 +3983,10 @@
         <v>250</v>
       </c>
       <c r="B119" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C119" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D119" t="s">
         <v>248</v>
@@ -4038,10 +4002,10 @@
         <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C120" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D120" t="s">
         <v>248</v>
@@ -4057,10 +4021,10 @@
         <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C121" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -4076,10 +4040,10 @@
         <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C122" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -4095,10 +4059,10 @@
         <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C123" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D123" t="s">
         <v>257</v>
@@ -4114,10 +4078,10 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D124" t="s">
         <v>257</v>
@@ -4133,10 +4097,10 @@
         <v>260</v>
       </c>
       <c r="B125" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C125" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D125" t="s">
         <v>257</v>
@@ -4152,10 +4116,10 @@
         <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C126" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D126" t="s">
         <v>248</v>
@@ -4171,10 +4135,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C127" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D127" t="s">
         <v>263</v>
@@ -4190,10 +4154,10 @@
         <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C128" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
@@ -4209,10 +4173,10 @@
         <v>266</v>
       </c>
       <c r="B129" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C129" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D129" t="s">
         <v>29</v>
@@ -4228,10 +4192,10 @@
         <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C130" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D130" t="s">
         <v>120</v>
@@ -4247,10 +4211,10 @@
         <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C131" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D131" t="s">
         <v>269</v>
@@ -4259,7 +4223,7 @@
         <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="G131" t="s">
         <v>271</v>
@@ -4273,10 +4237,10 @@
         <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C132" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D132" t="s">
         <v>35</v>
@@ -4292,10 +4256,10 @@
         <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C133" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D133" t="s">
         <v>275</v>
@@ -4311,10 +4275,10 @@
         <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C134" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -4330,10 +4294,10 @@
         <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4349,10 +4313,10 @@
         <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C136" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4368,10 +4332,10 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C137" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4387,10 +4351,10 @@
         <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C138" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D138" t="s">
         <v>221</v>
@@ -4406,10 +4370,10 @@
         <v>288</v>
       </c>
       <c r="B139" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C139" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D139" t="s">
         <v>289</v>
@@ -4425,10 +4389,10 @@
         <v>291</v>
       </c>
       <c r="B140" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C140" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -4444,10 +4408,10 @@
         <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D141" t="s">
         <v>123</v>
@@ -4463,10 +4427,10 @@
         <v>293</v>
       </c>
       <c r="B142" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C142" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D142" t="s">
         <v>117</v>
@@ -4482,10 +4446,10 @@
         <v>294</v>
       </c>
       <c r="B143" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C143" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D143" t="s">
         <v>35</v>
@@ -4501,10 +4465,10 @@
         <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C144" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
@@ -4520,10 +4484,10 @@
         <v>296</v>
       </c>
       <c r="B145" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C145" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D145" t="s">
         <v>117</v>
@@ -4539,10 +4503,10 @@
         <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C146" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4558,10 +4522,10 @@
         <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C147" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D147" t="s">
         <v>299</v>
@@ -4577,10 +4541,10 @@
         <v>301</v>
       </c>
       <c r="B148" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C148" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D148" t="s">
         <v>302</v>
@@ -4596,10 +4560,10 @@
         <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C149" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D149" t="s">
         <v>302</v>
@@ -4615,10 +4579,10 @@
         <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C150" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
@@ -4634,10 +4598,10 @@
         <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C151" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -4653,10 +4617,10 @@
         <v>309</v>
       </c>
       <c r="B152" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C152" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D152" t="s">
         <v>310</v>
@@ -4672,10 +4636,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C153" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D153" t="s">
         <v>313</v>
@@ -4691,10 +4655,10 @@
         <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C154" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D154" t="s">
         <v>316</v>
@@ -4710,10 +4674,10 @@
         <v>318</v>
       </c>
       <c r="B155" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C155" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D155" t="s">
         <v>316</v>
@@ -4729,10 +4693,10 @@
         <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C156" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D156" t="s">
         <v>75</v>
@@ -4748,10 +4712,10 @@
         <v>320</v>
       </c>
       <c r="B157" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C157" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -4767,10 +4731,10 @@
         <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C158" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D158" t="s">
         <v>221</v>
@@ -4786,10 +4750,10 @@
         <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C159" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D159" t="s">
         <v>150</v>
@@ -4805,10 +4769,10 @@
         <v>323</v>
       </c>
       <c r="B160" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C160" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D160" t="s">
         <v>150</v>
@@ -4824,10 +4788,10 @@
         <v>324</v>
       </c>
       <c r="B161" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C161" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D161" t="s">
         <v>150</v>
@@ -4843,10 +4807,10 @@
         <v>325</v>
       </c>
       <c r="B162" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C162" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -4862,10 +4826,10 @@
         <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C163" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D163" t="s">
         <v>327</v>
@@ -4881,10 +4845,10 @@
         <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D164" t="s">
         <v>289</v>
@@ -4900,10 +4864,10 @@
         <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C165" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D165" t="s">
         <v>331</v>
@@ -4919,7 +4883,7 @@
         <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C166" t="s">
         <v>335</v>
@@ -4938,7 +4902,7 @@
         <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C167" t="s">
         <v>335</v>
@@ -4957,10 +4921,10 @@
         <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C168" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D168" t="s">
         <v>338</v>
@@ -4976,10 +4940,10 @@
         <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C169" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D169" t="s">
         <v>341</v>
@@ -4995,10 +4959,10 @@
         <v>343</v>
       </c>
       <c r="B170" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C170" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D170" t="s">
         <v>344</v>
@@ -5014,10 +4978,10 @@
         <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C171" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -5033,10 +4997,10 @@
         <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C172" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D172" t="s">
         <v>139</v>
@@ -5052,10 +5016,10 @@
         <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C173" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D173" t="s">
         <v>139</v>
@@ -5071,10 +5035,10 @@
         <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C174" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D174" t="s">
         <v>352</v>
@@ -5090,10 +5054,10 @@
         <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C175" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D175" t="s">
         <v>355</v>
@@ -5109,10 +5073,10 @@
         <v>357</v>
       </c>
       <c r="B176" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C176" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D176" t="s">
         <v>355</v>
@@ -5128,10 +5092,10 @@
         <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C177" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D177" t="s">
         <v>359</v>
@@ -5147,10 +5111,10 @@
         <v>361</v>
       </c>
       <c r="B178" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C178" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -5166,10 +5130,10 @@
         <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C179" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
@@ -5185,10 +5149,10 @@
         <v>363</v>
       </c>
       <c r="B180" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C180" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
@@ -5204,10 +5168,10 @@
         <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C181" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -5223,10 +5187,10 @@
         <v>365</v>
       </c>
       <c r="B182" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C182" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -5242,10 +5206,10 @@
         <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C183" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -5261,10 +5225,10 @@
         <v>367</v>
       </c>
       <c r="B184" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C184" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -5280,10 +5244,10 @@
         <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C185" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
@@ -5299,10 +5263,10 @@
         <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C186" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -5318,10 +5282,10 @@
         <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C187" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
@@ -5337,10 +5301,10 @@
         <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C188" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
@@ -5356,10 +5320,10 @@
         <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C189" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D189" t="s">
         <v>373</v>
@@ -5375,10 +5339,10 @@
         <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C190" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D190" t="s">
         <v>376</v>
@@ -5394,10 +5358,10 @@
         <v>378</v>
       </c>
       <c r="B191" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C191" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D191" t="s">
         <v>376</v>
@@ -5413,10 +5377,10 @@
         <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C192" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D192" t="s">
         <v>380</v>
@@ -5432,10 +5396,10 @@
         <v>382</v>
       </c>
       <c r="B193" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C193" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D193" t="s">
         <v>383</v>
@@ -5451,10 +5415,10 @@
         <v>385</v>
       </c>
       <c r="B194" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C194" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D194" t="s">
         <v>386</v>
@@ -5470,10 +5434,10 @@
         <v>388</v>
       </c>
       <c r="B195" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C195" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D195" t="s">
         <v>389</v>
@@ -5489,10 +5453,10 @@
         <v>391</v>
       </c>
       <c r="B196" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C196" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D196" t="s">
         <v>392</v>
@@ -5508,10 +5472,10 @@
         <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C197" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D197" t="s">
         <v>395</v>
@@ -5527,10 +5491,10 @@
         <v>397</v>
       </c>
       <c r="B198" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C198" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D198" t="s">
         <v>398</v>
@@ -5546,10 +5510,10 @@
         <v>400</v>
       </c>
       <c r="B199" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C199" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D199" t="s">
         <v>401</v>
@@ -5565,10 +5529,10 @@
         <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C200" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D200" t="s">
         <v>404</v>
@@ -5584,10 +5548,10 @@
         <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C201" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D201" t="s">
         <v>407</v>
@@ -5603,10 +5567,10 @@
         <v>409</v>
       </c>
       <c r="B202" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C202" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D202" t="s">
         <v>410</v>
@@ -5622,10 +5586,10 @@
         <v>412</v>
       </c>
       <c r="B203" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C203" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D203" t="s">
         <v>413</v>
@@ -5635,82 +5599,6 @@
       </c>
       <c r="G203"/>
       <c r="H203"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>415</v>
-      </c>
-      <c r="B204" t="s">
-        <v>455</v>
-      </c>
-      <c r="C204" t="s">
-        <v>471</v>
-      </c>
-      <c r="D204" t="s">
-        <v>59</v>
-      </c>
-      <c r="E204" t="s">
-        <v>60</v>
-      </c>
-      <c r="G204"/>
-      <c r="H204"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>416</v>
-      </c>
-      <c r="B205" t="s">
-        <v>456</v>
-      </c>
-      <c r="C205" t="s">
-        <v>558</v>
-      </c>
-      <c r="D205" t="s">
-        <v>417</v>
-      </c>
-      <c r="E205" t="s">
-        <v>418</v>
-      </c>
-      <c r="G205"/>
-      <c r="H205"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>419</v>
-      </c>
-      <c r="B206" t="s">
-        <v>456</v>
-      </c>
-      <c r="C206" t="s">
-        <v>558</v>
-      </c>
-      <c r="D206" t="s">
-        <v>417</v>
-      </c>
-      <c r="E206" t="s">
-        <v>418</v>
-      </c>
-      <c r="G206"/>
-      <c r="H206"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>420</v>
-      </c>
-      <c r="B207" t="s">
-        <v>456</v>
-      </c>
-      <c r="C207" t="s">
-        <v>559</v>
-      </c>
-      <c r="D207" t="s">
-        <v>421</v>
-      </c>
-      <c r="E207" t="s">
-        <v>422</v>
-      </c>
-      <c r="G207"/>
-      <c r="H207"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
